--- a/data/scrapedEgret/egret_DL.xlsx
+++ b/data/scrapedEgret/egret_DL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/egret/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdre/Documents/github/egret/data/scrapedEgret/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DAC775-9A22-074D-A842-1310830D737B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C0738C-0424-8F47-959F-2ED3B76DFD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35140" yWindow="3480" windowWidth="33400" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="18500" windowHeight="17620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -9023,7 +9023,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9054,6 +9054,8 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9101,14 +9103,6 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -9116,6 +9110,14 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9431,7 +9433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -9995,14 +9997,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(A7))=0</formula>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
-      <formula>LEN(TRIM(A6))=0</formula>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10013,8 +10015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C224" sqref="C224"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12698,55 +12700,55 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="24">
         <v>36</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="24">
         <v>1</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="24">
         <v>105</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="24">
         <v>2008</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10" t="s">
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10" t="s">
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="S51" s="10" t="s">
+      <c r="S51" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="T51" s="10" t="s">
+      <c r="T51" s="24" t="s">
         <v>202</v>
       </c>
     </row>
@@ -12952,41 +12954,41 @@
         <v>594</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="25">
         <v>2009</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="R56" t="s">
+      <c r="R56" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="S56" t="s">
+      <c r="S56" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="T56" t="s">
+      <c r="T56" s="25" t="s">
         <v>261</v>
       </c>
     </row>
@@ -32078,9 +32080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS382"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE375" sqref="AE375:AE376"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33363,7 +33365,7 @@
         <v>46</v>
       </c>
       <c r="AK14">
-        <v>248</v>
+        <v>78.981999999999999</v>
       </c>
       <c r="AM14" t="s">
         <v>40</v>
@@ -33446,7 +33448,7 @@
         <v>46</v>
       </c>
       <c r="AK15">
-        <v>169.333</v>
+        <v>91.840999999999994</v>
       </c>
       <c r="AM15" t="s">
         <v>40</v>
@@ -33529,7 +33531,7 @@
         <v>46</v>
       </c>
       <c r="AK16">
-        <v>177.333</v>
+        <v>90.97</v>
       </c>
       <c r="AM16" t="s">
         <v>40</v>
@@ -33612,7 +33614,7 @@
         <v>46</v>
       </c>
       <c r="AK17">
-        <v>241.333</v>
+        <v>80.004000000000005</v>
       </c>
       <c r="AM17" t="s">
         <v>40</v>

--- a/data/scrapedEgret/egret_DL.xlsx
+++ b/data/scrapedEgret/egret_DL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdre/Documents/github/egret/data/scrapedEgret/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C0738C-0424-8F47-959F-2ED3B76DFD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8DA3A2-CD4C-D047-972F-780DCE98C6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="18500" windowHeight="17620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27920" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12682" uniqueCount="2808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13382" uniqueCount="2820">
   <si>
     <t>datasetID</t>
   </si>
@@ -8458,6 +8458,42 @@
   </si>
   <si>
     <t>conference talk</t>
+  </si>
+  <si>
+    <t>Washitani85</t>
+  </si>
+  <si>
+    <t>International Christian University, Mitaka, Tokyo, Japan</t>
+  </si>
+  <si>
+    <t>1983+1984</t>
+  </si>
+  <si>
+    <t>dry + cold/dry</t>
+  </si>
+  <si>
+    <t>150+NA</t>
+  </si>
+  <si>
+    <t>room temperature + 4</t>
+  </si>
+  <si>
+    <t>dry-chilling pretreatment</t>
+  </si>
+  <si>
+    <t>white 24h</t>
+  </si>
+  <si>
+    <t>max standard error</t>
+  </si>
+  <si>
+    <t>other, after treatment and placing at temperature-controlled room (4 °C) for 3-7 days</t>
+  </si>
+  <si>
+    <t>Figure 5</t>
+  </si>
+  <si>
+    <t>moist-chilling pretreatment</t>
   </si>
 </sst>
 </file>
@@ -10015,8 +10051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U492"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32078,11 +32114,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AS382"/>
+  <dimension ref="A1:AS402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS17" sqref="AS17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A383" sqref="A383:XFD402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64839,6 +64875,2686 @@
       </c>
       <c r="AR382" t="s">
         <v>475</v>
+      </c>
+    </row>
+    <row r="383" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B383" t="s">
+        <v>479</v>
+      </c>
+      <c r="C383" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D383" t="s">
+        <v>249</v>
+      </c>
+      <c r="E383" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F383" t="s">
+        <v>40</v>
+      </c>
+      <c r="G383" t="s">
+        <v>41</v>
+      </c>
+      <c r="H383" t="s">
+        <v>41</v>
+      </c>
+      <c r="I383" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J383" t="s">
+        <v>40</v>
+      </c>
+      <c r="K383" t="s">
+        <v>40</v>
+      </c>
+      <c r="L383" t="s">
+        <v>40</v>
+      </c>
+      <c r="M383" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N383" t="s">
+        <v>40</v>
+      </c>
+      <c r="O383">
+        <v>1983</v>
+      </c>
+      <c r="P383" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R383" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S383" t="s">
+        <v>40</v>
+      </c>
+      <c r="T383" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U383" t="s">
+        <v>2814</v>
+      </c>
+      <c r="V383">
+        <v>4</v>
+      </c>
+      <c r="W383">
+        <v>7</v>
+      </c>
+      <c r="X383">
+        <v>24</v>
+      </c>
+      <c r="Y383" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z383" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA383" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB383" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC383" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE383" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG383" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH383" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI383" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ383" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK383">
+        <v>0</v>
+      </c>
+      <c r="AL383" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM383">
+        <v>4.79</v>
+      </c>
+      <c r="AN383">
+        <v>6</v>
+      </c>
+      <c r="AO383">
+        <v>50</v>
+      </c>
+      <c r="AP383">
+        <v>0.82</v>
+      </c>
+      <c r="AQ383" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR383" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="384" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B384" t="s">
+        <v>479</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D384" t="s">
+        <v>249</v>
+      </c>
+      <c r="E384" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F384" t="s">
+        <v>40</v>
+      </c>
+      <c r="G384" t="s">
+        <v>41</v>
+      </c>
+      <c r="H384" t="s">
+        <v>41</v>
+      </c>
+      <c r="I384" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J384" t="s">
+        <v>40</v>
+      </c>
+      <c r="K384" t="s">
+        <v>40</v>
+      </c>
+      <c r="L384" t="s">
+        <v>40</v>
+      </c>
+      <c r="M384" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N384" t="s">
+        <v>40</v>
+      </c>
+      <c r="O384">
+        <v>1983</v>
+      </c>
+      <c r="P384" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R384" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S384" t="s">
+        <v>40</v>
+      </c>
+      <c r="T384" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U384" t="s">
+        <v>2814</v>
+      </c>
+      <c r="V384">
+        <v>4</v>
+      </c>
+      <c r="W384">
+        <v>7</v>
+      </c>
+      <c r="X384">
+        <v>24</v>
+      </c>
+      <c r="Y384" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z384" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA384" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB384" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC384" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD384" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE384" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF384" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG384" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH384" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI384" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ384" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK384">
+        <v>15.73</v>
+      </c>
+      <c r="AL384" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM384">
+        <v>4.79</v>
+      </c>
+      <c r="AN384">
+        <v>6</v>
+      </c>
+      <c r="AO384">
+        <v>50</v>
+      </c>
+      <c r="AP384">
+        <v>1.04</v>
+      </c>
+      <c r="AQ384" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR384" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="385" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B385" t="s">
+        <v>479</v>
+      </c>
+      <c r="C385" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D385" t="s">
+        <v>249</v>
+      </c>
+      <c r="E385" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F385" t="s">
+        <v>40</v>
+      </c>
+      <c r="G385" t="s">
+        <v>41</v>
+      </c>
+      <c r="H385" t="s">
+        <v>41</v>
+      </c>
+      <c r="I385" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J385" t="s">
+        <v>40</v>
+      </c>
+      <c r="K385" t="s">
+        <v>40</v>
+      </c>
+      <c r="L385" t="s">
+        <v>40</v>
+      </c>
+      <c r="M385" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N385" t="s">
+        <v>40</v>
+      </c>
+      <c r="O385">
+        <v>1983</v>
+      </c>
+      <c r="P385" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q385" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R385" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S385" t="s">
+        <v>40</v>
+      </c>
+      <c r="T385" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U385" t="s">
+        <v>2814</v>
+      </c>
+      <c r="V385">
+        <v>4</v>
+      </c>
+      <c r="W385">
+        <v>7</v>
+      </c>
+      <c r="X385">
+        <v>24</v>
+      </c>
+      <c r="Y385" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z385" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA385" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB385" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC385" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE385" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG385" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH385" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI385" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ385" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK385">
+        <v>71.77</v>
+      </c>
+      <c r="AL385" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM385">
+        <v>4.79</v>
+      </c>
+      <c r="AN385">
+        <v>6</v>
+      </c>
+      <c r="AO385">
+        <v>50</v>
+      </c>
+      <c r="AP385">
+        <v>1.21</v>
+      </c>
+      <c r="AQ385" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR385" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="386" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B386" t="s">
+        <v>479</v>
+      </c>
+      <c r="C386" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D386" t="s">
+        <v>249</v>
+      </c>
+      <c r="E386" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F386" t="s">
+        <v>40</v>
+      </c>
+      <c r="G386" t="s">
+        <v>41</v>
+      </c>
+      <c r="H386" t="s">
+        <v>41</v>
+      </c>
+      <c r="I386" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J386" t="s">
+        <v>40</v>
+      </c>
+      <c r="K386" t="s">
+        <v>40</v>
+      </c>
+      <c r="L386" t="s">
+        <v>40</v>
+      </c>
+      <c r="M386" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N386" t="s">
+        <v>40</v>
+      </c>
+      <c r="O386">
+        <v>1983</v>
+      </c>
+      <c r="P386" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R386" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S386" t="s">
+        <v>40</v>
+      </c>
+      <c r="T386" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U386" t="s">
+        <v>2814</v>
+      </c>
+      <c r="V386">
+        <v>4</v>
+      </c>
+      <c r="W386">
+        <v>7</v>
+      </c>
+      <c r="X386">
+        <v>24</v>
+      </c>
+      <c r="Y386" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z386" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA386" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB386" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC386" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE386" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG386" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH386" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI386" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ386" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK386">
+        <v>87.4</v>
+      </c>
+      <c r="AL386" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM386">
+        <v>4.79</v>
+      </c>
+      <c r="AN386">
+        <v>6</v>
+      </c>
+      <c r="AO386">
+        <v>50</v>
+      </c>
+      <c r="AP386">
+        <v>1.68</v>
+      </c>
+      <c r="AQ386" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR386" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="387" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B387" t="s">
+        <v>479</v>
+      </c>
+      <c r="C387" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D387" t="s">
+        <v>249</v>
+      </c>
+      <c r="E387" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F387" t="s">
+        <v>40</v>
+      </c>
+      <c r="G387" t="s">
+        <v>41</v>
+      </c>
+      <c r="H387" t="s">
+        <v>41</v>
+      </c>
+      <c r="I387" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J387" t="s">
+        <v>40</v>
+      </c>
+      <c r="K387" t="s">
+        <v>40</v>
+      </c>
+      <c r="L387" t="s">
+        <v>40</v>
+      </c>
+      <c r="M387" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N387" t="s">
+        <v>40</v>
+      </c>
+      <c r="O387">
+        <v>1983</v>
+      </c>
+      <c r="P387" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R387" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S387" t="s">
+        <v>40</v>
+      </c>
+      <c r="T387" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U387" t="s">
+        <v>2814</v>
+      </c>
+      <c r="V387">
+        <v>4</v>
+      </c>
+      <c r="W387">
+        <v>7</v>
+      </c>
+      <c r="X387">
+        <v>24</v>
+      </c>
+      <c r="Y387" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z387" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA387" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB387" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC387" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD387" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE387" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF387" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG387" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH387" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI387" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ387" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK387">
+        <v>89.48</v>
+      </c>
+      <c r="AL387" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM387">
+        <v>4.79</v>
+      </c>
+      <c r="AN387">
+        <v>6</v>
+      </c>
+      <c r="AO387">
+        <v>50</v>
+      </c>
+      <c r="AP387">
+        <v>1.97</v>
+      </c>
+      <c r="AQ387" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR387" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="388" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B388" t="s">
+        <v>479</v>
+      </c>
+      <c r="C388" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D388" t="s">
+        <v>249</v>
+      </c>
+      <c r="E388" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F388" t="s">
+        <v>40</v>
+      </c>
+      <c r="G388" t="s">
+        <v>41</v>
+      </c>
+      <c r="H388" t="s">
+        <v>41</v>
+      </c>
+      <c r="I388" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J388" t="s">
+        <v>40</v>
+      </c>
+      <c r="K388" t="s">
+        <v>40</v>
+      </c>
+      <c r="L388" t="s">
+        <v>40</v>
+      </c>
+      <c r="M388" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N388" t="s">
+        <v>40</v>
+      </c>
+      <c r="O388">
+        <v>1983</v>
+      </c>
+      <c r="P388" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q388" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R388" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S388" t="s">
+        <v>40</v>
+      </c>
+      <c r="T388" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U388" t="s">
+        <v>2814</v>
+      </c>
+      <c r="V388">
+        <v>4</v>
+      </c>
+      <c r="W388">
+        <v>7</v>
+      </c>
+      <c r="X388">
+        <v>24</v>
+      </c>
+      <c r="Y388" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z388" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA388" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB388" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC388" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE388" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG388" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH388" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI388" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ388" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK388">
+        <v>92.19</v>
+      </c>
+      <c r="AL388" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM388">
+        <v>4.79</v>
+      </c>
+      <c r="AN388">
+        <v>6</v>
+      </c>
+      <c r="AO388">
+        <v>50</v>
+      </c>
+      <c r="AP388">
+        <v>3</v>
+      </c>
+      <c r="AQ388" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR388" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="389" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B389" t="s">
+        <v>479</v>
+      </c>
+      <c r="C389" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D389" t="s">
+        <v>249</v>
+      </c>
+      <c r="E389" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F389" t="s">
+        <v>40</v>
+      </c>
+      <c r="G389" t="s">
+        <v>41</v>
+      </c>
+      <c r="H389" t="s">
+        <v>41</v>
+      </c>
+      <c r="I389" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J389" t="s">
+        <v>40</v>
+      </c>
+      <c r="K389" t="s">
+        <v>40</v>
+      </c>
+      <c r="L389" t="s">
+        <v>40</v>
+      </c>
+      <c r="M389" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N389" t="s">
+        <v>40</v>
+      </c>
+      <c r="O389">
+        <v>1983</v>
+      </c>
+      <c r="P389" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R389" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S389" t="s">
+        <v>40</v>
+      </c>
+      <c r="T389" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U389" t="s">
+        <v>2814</v>
+      </c>
+      <c r="V389">
+        <v>4</v>
+      </c>
+      <c r="W389">
+        <v>7</v>
+      </c>
+      <c r="X389">
+        <v>24</v>
+      </c>
+      <c r="Y389" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z389" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA389" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB389" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC389" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE389" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG389" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH389" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI389" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ389" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK389">
+        <v>95.52</v>
+      </c>
+      <c r="AL389" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM389">
+        <v>4.79</v>
+      </c>
+      <c r="AN389">
+        <v>6</v>
+      </c>
+      <c r="AO389">
+        <v>50</v>
+      </c>
+      <c r="AP389">
+        <v>5.01</v>
+      </c>
+      <c r="AQ389" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR389" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="390" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B390" t="s">
+        <v>479</v>
+      </c>
+      <c r="C390" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D390" t="s">
+        <v>249</v>
+      </c>
+      <c r="E390" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F390" t="s">
+        <v>40</v>
+      </c>
+      <c r="G390" t="s">
+        <v>41</v>
+      </c>
+      <c r="H390" t="s">
+        <v>41</v>
+      </c>
+      <c r="I390" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J390" t="s">
+        <v>40</v>
+      </c>
+      <c r="K390" t="s">
+        <v>40</v>
+      </c>
+      <c r="L390" t="s">
+        <v>40</v>
+      </c>
+      <c r="M390" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N390" t="s">
+        <v>40</v>
+      </c>
+      <c r="O390">
+        <v>1983</v>
+      </c>
+      <c r="P390" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R390" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S390" t="s">
+        <v>40</v>
+      </c>
+      <c r="T390" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U390" t="s">
+        <v>2814</v>
+      </c>
+      <c r="V390">
+        <v>4</v>
+      </c>
+      <c r="W390">
+        <v>7</v>
+      </c>
+      <c r="X390">
+        <v>24</v>
+      </c>
+      <c r="Y390" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z390" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA390" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB390" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC390" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE390" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG390" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH390" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI390" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ390" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK390">
+        <v>96.56</v>
+      </c>
+      <c r="AL390" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM390">
+        <v>4.79</v>
+      </c>
+      <c r="AN390">
+        <v>6</v>
+      </c>
+      <c r="AO390">
+        <v>50</v>
+      </c>
+      <c r="AP390">
+        <v>5.86</v>
+      </c>
+      <c r="AQ390" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR390" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="391" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B391" t="s">
+        <v>479</v>
+      </c>
+      <c r="C391" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D391" t="s">
+        <v>249</v>
+      </c>
+      <c r="E391" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F391" t="s">
+        <v>40</v>
+      </c>
+      <c r="G391" t="s">
+        <v>41</v>
+      </c>
+      <c r="H391" t="s">
+        <v>41</v>
+      </c>
+      <c r="I391" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J391" t="s">
+        <v>40</v>
+      </c>
+      <c r="K391" t="s">
+        <v>40</v>
+      </c>
+      <c r="L391" t="s">
+        <v>40</v>
+      </c>
+      <c r="M391" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N391" t="s">
+        <v>40</v>
+      </c>
+      <c r="O391">
+        <v>1983</v>
+      </c>
+      <c r="P391" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R391" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S391" t="s">
+        <v>40</v>
+      </c>
+      <c r="T391" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U391" t="s">
+        <v>2814</v>
+      </c>
+      <c r="V391">
+        <v>4</v>
+      </c>
+      <c r="W391">
+        <v>7</v>
+      </c>
+      <c r="X391">
+        <v>24</v>
+      </c>
+      <c r="Y391" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z391" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA391" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB391" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC391" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD391" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE391" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF391" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG391" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH391" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI391" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ391" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK391">
+        <v>98.02</v>
+      </c>
+      <c r="AL391" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM391">
+        <v>4.79</v>
+      </c>
+      <c r="AN391">
+        <v>6</v>
+      </c>
+      <c r="AO391">
+        <v>50</v>
+      </c>
+      <c r="AP391">
+        <v>7.84</v>
+      </c>
+      <c r="AQ391" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR391" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="392" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B392" t="s">
+        <v>479</v>
+      </c>
+      <c r="C392" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D392" t="s">
+        <v>249</v>
+      </c>
+      <c r="E392" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F392" t="s">
+        <v>40</v>
+      </c>
+      <c r="G392" t="s">
+        <v>41</v>
+      </c>
+      <c r="H392" t="s">
+        <v>41</v>
+      </c>
+      <c r="I392" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J392" t="s">
+        <v>40</v>
+      </c>
+      <c r="K392" t="s">
+        <v>40</v>
+      </c>
+      <c r="L392" t="s">
+        <v>40</v>
+      </c>
+      <c r="M392" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N392" t="s">
+        <v>40</v>
+      </c>
+      <c r="O392">
+        <v>1983</v>
+      </c>
+      <c r="P392" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R392" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S392" t="s">
+        <v>40</v>
+      </c>
+      <c r="T392" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U392" t="s">
+        <v>2814</v>
+      </c>
+      <c r="V392">
+        <v>4</v>
+      </c>
+      <c r="W392">
+        <v>7</v>
+      </c>
+      <c r="X392">
+        <v>24</v>
+      </c>
+      <c r="Y392" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z392" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA392" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB392" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC392" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE392" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG392" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH392" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI392" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ392" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK392">
+        <v>98.23</v>
+      </c>
+      <c r="AL392" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM392">
+        <v>4.79</v>
+      </c>
+      <c r="AN392">
+        <v>6</v>
+      </c>
+      <c r="AO392">
+        <v>50</v>
+      </c>
+      <c r="AP392">
+        <v>9.75</v>
+      </c>
+      <c r="AQ392" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR392" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="393" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B393" t="s">
+        <v>479</v>
+      </c>
+      <c r="C393" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D393" t="s">
+        <v>249</v>
+      </c>
+      <c r="E393" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F393" t="s">
+        <v>40</v>
+      </c>
+      <c r="G393" t="s">
+        <v>41</v>
+      </c>
+      <c r="H393" t="s">
+        <v>41</v>
+      </c>
+      <c r="I393" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J393" t="s">
+        <v>40</v>
+      </c>
+      <c r="K393" t="s">
+        <v>40</v>
+      </c>
+      <c r="L393" t="s">
+        <v>40</v>
+      </c>
+      <c r="M393" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N393" t="s">
+        <v>40</v>
+      </c>
+      <c r="O393">
+        <v>1983</v>
+      </c>
+      <c r="P393" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R393" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S393" t="s">
+        <v>40</v>
+      </c>
+      <c r="T393" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U393" t="s">
+        <v>2819</v>
+      </c>
+      <c r="V393">
+        <v>4</v>
+      </c>
+      <c r="W393">
+        <v>7</v>
+      </c>
+      <c r="X393">
+        <v>24</v>
+      </c>
+      <c r="Y393" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z393" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA393" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB393" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC393" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD393" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE393" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF393" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG393" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH393" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI393" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ393" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK393">
+        <v>3.5289999999999999</v>
+      </c>
+      <c r="AL393" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM393">
+        <v>4</v>
+      </c>
+      <c r="AN393">
+        <v>6</v>
+      </c>
+      <c r="AO393">
+        <v>50</v>
+      </c>
+      <c r="AP393">
+        <v>1.07</v>
+      </c>
+      <c r="AQ393" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR393" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="394" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B394" t="s">
+        <v>479</v>
+      </c>
+      <c r="C394" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D394" t="s">
+        <v>249</v>
+      </c>
+      <c r="E394" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F394" t="s">
+        <v>40</v>
+      </c>
+      <c r="G394" t="s">
+        <v>41</v>
+      </c>
+      <c r="H394" t="s">
+        <v>41</v>
+      </c>
+      <c r="I394" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J394" t="s">
+        <v>40</v>
+      </c>
+      <c r="K394" t="s">
+        <v>40</v>
+      </c>
+      <c r="L394" t="s">
+        <v>40</v>
+      </c>
+      <c r="M394" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N394" t="s">
+        <v>40</v>
+      </c>
+      <c r="O394">
+        <v>1983</v>
+      </c>
+      <c r="P394" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R394" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S394" t="s">
+        <v>40</v>
+      </c>
+      <c r="T394" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U394" t="s">
+        <v>2819</v>
+      </c>
+      <c r="V394">
+        <v>4</v>
+      </c>
+      <c r="W394">
+        <v>7</v>
+      </c>
+      <c r="X394">
+        <v>24</v>
+      </c>
+      <c r="Y394" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z394" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA394" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB394" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC394" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE394" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG394" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH394" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI394" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ394" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK394">
+        <v>27.428999999999998</v>
+      </c>
+      <c r="AL394" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM394">
+        <v>4</v>
+      </c>
+      <c r="AN394">
+        <v>6</v>
+      </c>
+      <c r="AO394">
+        <v>50</v>
+      </c>
+      <c r="AP394">
+        <v>1.7</v>
+      </c>
+      <c r="AQ394" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR394" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="395" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B395" t="s">
+        <v>479</v>
+      </c>
+      <c r="C395" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D395" t="s">
+        <v>249</v>
+      </c>
+      <c r="E395" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F395" t="s">
+        <v>40</v>
+      </c>
+      <c r="G395" t="s">
+        <v>41</v>
+      </c>
+      <c r="H395" t="s">
+        <v>41</v>
+      </c>
+      <c r="I395" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J395" t="s">
+        <v>40</v>
+      </c>
+      <c r="K395" t="s">
+        <v>40</v>
+      </c>
+      <c r="L395" t="s">
+        <v>40</v>
+      </c>
+      <c r="M395" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N395" t="s">
+        <v>40</v>
+      </c>
+      <c r="O395">
+        <v>1983</v>
+      </c>
+      <c r="P395" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q395" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R395" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S395" t="s">
+        <v>40</v>
+      </c>
+      <c r="T395" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U395" t="s">
+        <v>2819</v>
+      </c>
+      <c r="V395">
+        <v>4</v>
+      </c>
+      <c r="W395">
+        <v>7</v>
+      </c>
+      <c r="X395">
+        <v>24</v>
+      </c>
+      <c r="Y395" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z395" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA395" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB395" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC395" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD395" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE395" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF395" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG395" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH395" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI395" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ395" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK395">
+        <v>40.500999999999998</v>
+      </c>
+      <c r="AL395" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM395">
+        <v>4</v>
+      </c>
+      <c r="AN395">
+        <v>6</v>
+      </c>
+      <c r="AO395">
+        <v>50</v>
+      </c>
+      <c r="AP395">
+        <v>1.98</v>
+      </c>
+      <c r="AQ395" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR395" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="396" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B396" t="s">
+        <v>479</v>
+      </c>
+      <c r="C396" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D396" t="s">
+        <v>249</v>
+      </c>
+      <c r="E396" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F396" t="s">
+        <v>40</v>
+      </c>
+      <c r="G396" t="s">
+        <v>41</v>
+      </c>
+      <c r="H396" t="s">
+        <v>41</v>
+      </c>
+      <c r="I396" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J396" t="s">
+        <v>40</v>
+      </c>
+      <c r="K396" t="s">
+        <v>40</v>
+      </c>
+      <c r="L396" t="s">
+        <v>40</v>
+      </c>
+      <c r="M396" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N396" t="s">
+        <v>40</v>
+      </c>
+      <c r="O396">
+        <v>1983</v>
+      </c>
+      <c r="P396" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R396" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S396" t="s">
+        <v>40</v>
+      </c>
+      <c r="T396" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U396" t="s">
+        <v>2819</v>
+      </c>
+      <c r="V396">
+        <v>4</v>
+      </c>
+      <c r="W396">
+        <v>7</v>
+      </c>
+      <c r="X396">
+        <v>24</v>
+      </c>
+      <c r="Y396" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z396" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA396" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB396" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC396" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD396" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE396" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF396" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG396" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH396" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI396" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ396" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK396">
+        <v>59.673000000000002</v>
+      </c>
+      <c r="AL396" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM396">
+        <v>4</v>
+      </c>
+      <c r="AN396">
+        <v>6</v>
+      </c>
+      <c r="AO396">
+        <v>50</v>
+      </c>
+      <c r="AP396">
+        <v>2.69</v>
+      </c>
+      <c r="AQ396" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR396" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="397" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B397" t="s">
+        <v>479</v>
+      </c>
+      <c r="C397" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D397" t="s">
+        <v>249</v>
+      </c>
+      <c r="E397" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F397" t="s">
+        <v>40</v>
+      </c>
+      <c r="G397" t="s">
+        <v>41</v>
+      </c>
+      <c r="H397" t="s">
+        <v>41</v>
+      </c>
+      <c r="I397" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J397" t="s">
+        <v>40</v>
+      </c>
+      <c r="K397" t="s">
+        <v>40</v>
+      </c>
+      <c r="L397" t="s">
+        <v>40</v>
+      </c>
+      <c r="M397" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N397" t="s">
+        <v>40</v>
+      </c>
+      <c r="O397">
+        <v>1983</v>
+      </c>
+      <c r="P397" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R397" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S397" t="s">
+        <v>40</v>
+      </c>
+      <c r="T397" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U397" t="s">
+        <v>2819</v>
+      </c>
+      <c r="V397">
+        <v>4</v>
+      </c>
+      <c r="W397">
+        <v>7</v>
+      </c>
+      <c r="X397">
+        <v>24</v>
+      </c>
+      <c r="Y397" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z397" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA397" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB397" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC397" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD397" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE397" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF397" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG397" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH397" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI397" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ397" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK397">
+        <v>67.691000000000003</v>
+      </c>
+      <c r="AL397" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM397">
+        <v>4</v>
+      </c>
+      <c r="AN397">
+        <v>6</v>
+      </c>
+      <c r="AO397">
+        <v>50</v>
+      </c>
+      <c r="AP397">
+        <v>2.99</v>
+      </c>
+      <c r="AQ397" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR397" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="398" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B398" t="s">
+        <v>479</v>
+      </c>
+      <c r="C398" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D398" t="s">
+        <v>249</v>
+      </c>
+      <c r="E398" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F398" t="s">
+        <v>40</v>
+      </c>
+      <c r="G398" t="s">
+        <v>41</v>
+      </c>
+      <c r="H398" t="s">
+        <v>41</v>
+      </c>
+      <c r="I398" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J398" t="s">
+        <v>40</v>
+      </c>
+      <c r="K398" t="s">
+        <v>40</v>
+      </c>
+      <c r="L398" t="s">
+        <v>40</v>
+      </c>
+      <c r="M398" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N398" t="s">
+        <v>40</v>
+      </c>
+      <c r="O398">
+        <v>1983</v>
+      </c>
+      <c r="P398" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R398" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S398" t="s">
+        <v>40</v>
+      </c>
+      <c r="T398" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U398" t="s">
+        <v>2819</v>
+      </c>
+      <c r="V398">
+        <v>4</v>
+      </c>
+      <c r="W398">
+        <v>7</v>
+      </c>
+      <c r="X398">
+        <v>24</v>
+      </c>
+      <c r="Y398" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z398" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA398" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB398" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC398" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD398" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE398" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF398" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG398" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH398" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI398" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ398" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK398">
+        <v>83.376999999999995</v>
+      </c>
+      <c r="AL398" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM398">
+        <v>4</v>
+      </c>
+      <c r="AN398">
+        <v>6</v>
+      </c>
+      <c r="AO398">
+        <v>50</v>
+      </c>
+      <c r="AP398">
+        <v>4</v>
+      </c>
+      <c r="AQ398" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR398" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="399" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B399" t="s">
+        <v>479</v>
+      </c>
+      <c r="C399" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D399" t="s">
+        <v>249</v>
+      </c>
+      <c r="E399" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F399" t="s">
+        <v>40</v>
+      </c>
+      <c r="G399" t="s">
+        <v>41</v>
+      </c>
+      <c r="H399" t="s">
+        <v>41</v>
+      </c>
+      <c r="I399" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J399" t="s">
+        <v>40</v>
+      </c>
+      <c r="K399" t="s">
+        <v>40</v>
+      </c>
+      <c r="L399" t="s">
+        <v>40</v>
+      </c>
+      <c r="M399" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N399" t="s">
+        <v>40</v>
+      </c>
+      <c r="O399">
+        <v>1983</v>
+      </c>
+      <c r="P399" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R399" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S399" t="s">
+        <v>40</v>
+      </c>
+      <c r="T399" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U399" t="s">
+        <v>2819</v>
+      </c>
+      <c r="V399">
+        <v>4</v>
+      </c>
+      <c r="W399">
+        <v>7</v>
+      </c>
+      <c r="X399">
+        <v>24</v>
+      </c>
+      <c r="Y399" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z399" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA399" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB399" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC399" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD399" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE399" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF399" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG399" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH399" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI399" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ399" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK399">
+        <v>89.825999999999993</v>
+      </c>
+      <c r="AL399" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM399">
+        <v>4</v>
+      </c>
+      <c r="AN399">
+        <v>6</v>
+      </c>
+      <c r="AO399">
+        <v>50</v>
+      </c>
+      <c r="AP399">
+        <v>5</v>
+      </c>
+      <c r="AQ399" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR399" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="400" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B400" t="s">
+        <v>479</v>
+      </c>
+      <c r="C400" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D400" t="s">
+        <v>249</v>
+      </c>
+      <c r="E400" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F400" t="s">
+        <v>40</v>
+      </c>
+      <c r="G400" t="s">
+        <v>41</v>
+      </c>
+      <c r="H400" t="s">
+        <v>41</v>
+      </c>
+      <c r="I400" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J400" t="s">
+        <v>40</v>
+      </c>
+      <c r="K400" t="s">
+        <v>40</v>
+      </c>
+      <c r="L400" t="s">
+        <v>40</v>
+      </c>
+      <c r="M400" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N400" t="s">
+        <v>40</v>
+      </c>
+      <c r="O400">
+        <v>1983</v>
+      </c>
+      <c r="P400" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q400" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R400" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S400" t="s">
+        <v>40</v>
+      </c>
+      <c r="T400" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U400" t="s">
+        <v>2819</v>
+      </c>
+      <c r="V400">
+        <v>4</v>
+      </c>
+      <c r="W400">
+        <v>7</v>
+      </c>
+      <c r="X400">
+        <v>24</v>
+      </c>
+      <c r="Y400" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z400" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA400" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB400" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC400" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD400" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE400" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF400" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG400" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH400" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI400" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ400" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK400">
+        <v>91.046000000000006</v>
+      </c>
+      <c r="AL400" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM400">
+        <v>4</v>
+      </c>
+      <c r="AN400">
+        <v>6</v>
+      </c>
+      <c r="AO400">
+        <v>50</v>
+      </c>
+      <c r="AP400">
+        <v>5.9</v>
+      </c>
+      <c r="AQ400" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR400" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="401" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B401" t="s">
+        <v>479</v>
+      </c>
+      <c r="C401" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D401" t="s">
+        <v>249</v>
+      </c>
+      <c r="E401" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F401" t="s">
+        <v>40</v>
+      </c>
+      <c r="G401" t="s">
+        <v>41</v>
+      </c>
+      <c r="H401" t="s">
+        <v>41</v>
+      </c>
+      <c r="I401" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J401" t="s">
+        <v>40</v>
+      </c>
+      <c r="K401" t="s">
+        <v>40</v>
+      </c>
+      <c r="L401" t="s">
+        <v>40</v>
+      </c>
+      <c r="M401" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N401" t="s">
+        <v>40</v>
+      </c>
+      <c r="O401">
+        <v>1983</v>
+      </c>
+      <c r="P401" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R401" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S401" t="s">
+        <v>40</v>
+      </c>
+      <c r="T401" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U401" t="s">
+        <v>2819</v>
+      </c>
+      <c r="V401">
+        <v>4</v>
+      </c>
+      <c r="W401">
+        <v>7</v>
+      </c>
+      <c r="X401">
+        <v>24</v>
+      </c>
+      <c r="Y401" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z401" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA401" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB401" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC401" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD401" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE401" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF401" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG401" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH401" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI401" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ401" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK401">
+        <v>93.486000000000004</v>
+      </c>
+      <c r="AL401" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM401">
+        <v>4</v>
+      </c>
+      <c r="AN401">
+        <v>6</v>
+      </c>
+      <c r="AO401">
+        <v>50</v>
+      </c>
+      <c r="AP401">
+        <v>7.84</v>
+      </c>
+      <c r="AQ401" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR401" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="402" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B402" t="s">
+        <v>479</v>
+      </c>
+      <c r="C402" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D402" t="s">
+        <v>249</v>
+      </c>
+      <c r="E402" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F402" t="s">
+        <v>40</v>
+      </c>
+      <c r="G402" t="s">
+        <v>41</v>
+      </c>
+      <c r="H402" t="s">
+        <v>41</v>
+      </c>
+      <c r="I402" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J402" t="s">
+        <v>40</v>
+      </c>
+      <c r="K402" t="s">
+        <v>40</v>
+      </c>
+      <c r="L402" t="s">
+        <v>40</v>
+      </c>
+      <c r="M402" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N402" t="s">
+        <v>40</v>
+      </c>
+      <c r="O402">
+        <v>1983</v>
+      </c>
+      <c r="P402" t="s">
+        <v>2810</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>2811</v>
+      </c>
+      <c r="R402" t="s">
+        <v>2812</v>
+      </c>
+      <c r="S402" t="s">
+        <v>40</v>
+      </c>
+      <c r="T402" t="s">
+        <v>2813</v>
+      </c>
+      <c r="U402" t="s">
+        <v>2819</v>
+      </c>
+      <c r="V402">
+        <v>4</v>
+      </c>
+      <c r="W402">
+        <v>7</v>
+      </c>
+      <c r="X402">
+        <v>24</v>
+      </c>
+      <c r="Y402" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z402" t="s">
+        <v>2815</v>
+      </c>
+      <c r="AA402" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB402" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC402" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD402" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE402" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF402" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG402" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH402" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI402" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ402" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK402">
+        <v>93.834000000000003</v>
+      </c>
+      <c r="AL402" t="s">
+        <v>2816</v>
+      </c>
+      <c r="AM402">
+        <v>4</v>
+      </c>
+      <c r="AN402">
+        <v>6</v>
+      </c>
+      <c r="AO402">
+        <v>50</v>
+      </c>
+      <c r="AP402">
+        <v>9.82</v>
+      </c>
+      <c r="AQ402" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AR402" t="s">
+        <v>2818</v>
       </c>
     </row>
   </sheetData>

--- a/data/scrapedEgret/egret_DL.xlsx
+++ b/data/scrapedEgret/egret_DL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdre/Documents/github/egret/data/scrapedEgret/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8DA3A2-CD4C-D047-972F-780DCE98C6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFD1455-467D-9E48-818D-A846F456DA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27920" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13382" uniqueCount="2820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14418" uniqueCount="2845">
   <si>
     <t>datasetID</t>
   </si>
@@ -8494,6 +8494,81 @@
   </si>
   <si>
     <t>moist-chilling pretreatment</t>
+  </si>
+  <si>
+    <t>DL </t>
+  </si>
+  <si>
+    <t>Environmental Growth Chambers, Chagrin Falls, Ohio, USA</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>coin envelope (room temperature)</t>
+  </si>
+  <si>
+    <t>Annual, seeds were grown from field-collected seeds from each population in a walk-in growth chamber (in uniform conditions)</t>
+  </si>
+  <si>
+    <t>sandpaper</t>
+  </si>
+  <si>
+    <t>germ.proportion</t>
+  </si>
+  <si>
+    <t>Figure 1A</t>
+  </si>
+  <si>
+    <t>cold stratification</t>
+  </si>
+  <si>
+    <t>21/18 day/night</t>
+  </si>
+  <si>
+    <t>10.5/13.5</t>
+  </si>
+  <si>
+    <t>Coastal perennial, seeds were grown from field-collected seeds from each population in a walk-in growth chamber (in uniform conditions)</t>
+  </si>
+  <si>
+    <t>Perennial, seeds were grown from field-collected seeds from each population in a walk-in growth chamber (in uniform conditions)</t>
+  </si>
+  <si>
+    <t>days to germ.</t>
+  </si>
+  <si>
+    <t>Figure 1B</t>
+  </si>
+  <si>
+    <t>Monte Padenteddu, Southern Sardinia, Italy</t>
+  </si>
+  <si>
+    <t>light control</t>
+  </si>
+  <si>
+    <t>when incubation begins</t>
+  </si>
+  <si>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>not.specified</t>
+  </si>
+  <si>
+    <t>when treatment ends</t>
+  </si>
+  <si>
+    <t>warm stratification</t>
+  </si>
+  <si>
+    <t>note that this is warm stratification not cold in chilling columns</t>
+  </si>
+  <si>
+    <t>dry after-ripened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 months at 25C on silica gel </t>
   </si>
 </sst>
 </file>
@@ -32114,11 +32189,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AS402"/>
+  <dimension ref="A1:AS436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A383" sqref="A383:XFD402"/>
+      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A403" sqref="A403:XFD436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67555,6 +67630,4052 @@
       </c>
       <c r="AR402" t="s">
         <v>2818</v>
+      </c>
+    </row>
+    <row r="403" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B403" t="s">
+        <v>36</v>
+      </c>
+      <c r="C403" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F403" t="s">
+        <v>40</v>
+      </c>
+      <c r="G403" t="s">
+        <v>41</v>
+      </c>
+      <c r="H403" t="s">
+        <v>41</v>
+      </c>
+      <c r="I403" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J403" t="s">
+        <v>40</v>
+      </c>
+      <c r="K403" t="s">
+        <v>40</v>
+      </c>
+      <c r="L403" t="s">
+        <v>40</v>
+      </c>
+      <c r="M403" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N403" t="s">
+        <v>40</v>
+      </c>
+      <c r="O403" t="s">
+        <v>40</v>
+      </c>
+      <c r="P403" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R403">
+        <v>180</v>
+      </c>
+      <c r="S403" t="s">
+        <v>40</v>
+      </c>
+      <c r="T403" t="s">
+        <v>40</v>
+      </c>
+      <c r="U403" t="s">
+        <v>52</v>
+      </c>
+      <c r="V403" t="s">
+        <v>40</v>
+      </c>
+      <c r="W403">
+        <v>0</v>
+      </c>
+      <c r="X403">
+        <v>21</v>
+      </c>
+      <c r="Y403" t="s">
+        <v>2824</v>
+      </c>
+      <c r="Z403">
+        <v>0</v>
+      </c>
+      <c r="AA403" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB403" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC403" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD403" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE403" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF403" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG403" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH403" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI403" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ403" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AK403">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="AL403" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM403">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AN403">
+        <v>12</v>
+      </c>
+      <c r="AO403">
+        <v>10</v>
+      </c>
+      <c r="AP403">
+        <v>120</v>
+      </c>
+      <c r="AQ403" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR403" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="404" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B404" t="s">
+        <v>36</v>
+      </c>
+      <c r="C404" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F404" t="s">
+        <v>40</v>
+      </c>
+      <c r="G404" t="s">
+        <v>41</v>
+      </c>
+      <c r="H404" t="s">
+        <v>41</v>
+      </c>
+      <c r="I404" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J404" t="s">
+        <v>40</v>
+      </c>
+      <c r="K404" t="s">
+        <v>40</v>
+      </c>
+      <c r="L404" t="s">
+        <v>40</v>
+      </c>
+      <c r="M404" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N404" t="s">
+        <v>40</v>
+      </c>
+      <c r="O404" t="s">
+        <v>40</v>
+      </c>
+      <c r="P404" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R404">
+        <v>180</v>
+      </c>
+      <c r="S404" t="s">
+        <v>40</v>
+      </c>
+      <c r="T404" t="s">
+        <v>40</v>
+      </c>
+      <c r="U404" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V404">
+        <v>4</v>
+      </c>
+      <c r="W404">
+        <v>5</v>
+      </c>
+      <c r="X404" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y404" t="s">
+        <v>2824</v>
+      </c>
+      <c r="Z404" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA404" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB404" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC404" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD404" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE404" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF404" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG404" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH404" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI404" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ404" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AK404">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="AL404" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM404">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AN404">
+        <v>12</v>
+      </c>
+      <c r="AO404">
+        <v>10</v>
+      </c>
+      <c r="AP404">
+        <v>120</v>
+      </c>
+      <c r="AQ404" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR404" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="405" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B405" t="s">
+        <v>36</v>
+      </c>
+      <c r="C405" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F405" t="s">
+        <v>40</v>
+      </c>
+      <c r="G405" t="s">
+        <v>41</v>
+      </c>
+      <c r="H405" t="s">
+        <v>41</v>
+      </c>
+      <c r="I405" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J405" t="s">
+        <v>40</v>
+      </c>
+      <c r="K405" t="s">
+        <v>40</v>
+      </c>
+      <c r="L405" t="s">
+        <v>40</v>
+      </c>
+      <c r="M405" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N405" t="s">
+        <v>40</v>
+      </c>
+      <c r="O405" t="s">
+        <v>40</v>
+      </c>
+      <c r="P405" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R405">
+        <v>180</v>
+      </c>
+      <c r="S405" t="s">
+        <v>40</v>
+      </c>
+      <c r="T405" t="s">
+        <v>40</v>
+      </c>
+      <c r="U405" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V405">
+        <v>4</v>
+      </c>
+      <c r="W405">
+        <v>10</v>
+      </c>
+      <c r="X405" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y405" t="s">
+        <v>2824</v>
+      </c>
+      <c r="Z405" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA405" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB405" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC405" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD405" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE405" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF405" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG405" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH405" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI405" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ405" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AK405">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="AL405" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM405">
+        <v>7.8E-2</v>
+      </c>
+      <c r="AN405">
+        <v>12</v>
+      </c>
+      <c r="AO405">
+        <v>10</v>
+      </c>
+      <c r="AP405">
+        <v>120</v>
+      </c>
+      <c r="AQ405" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR405" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="406" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B406" t="s">
+        <v>36</v>
+      </c>
+      <c r="C406" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F406" t="s">
+        <v>40</v>
+      </c>
+      <c r="G406" t="s">
+        <v>41</v>
+      </c>
+      <c r="H406" t="s">
+        <v>41</v>
+      </c>
+      <c r="I406" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J406" t="s">
+        <v>40</v>
+      </c>
+      <c r="K406" t="s">
+        <v>40</v>
+      </c>
+      <c r="L406" t="s">
+        <v>40</v>
+      </c>
+      <c r="M406" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N406" t="s">
+        <v>40</v>
+      </c>
+      <c r="O406" t="s">
+        <v>40</v>
+      </c>
+      <c r="P406" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R406">
+        <v>180</v>
+      </c>
+      <c r="S406" t="s">
+        <v>40</v>
+      </c>
+      <c r="T406" t="s">
+        <v>40</v>
+      </c>
+      <c r="U406" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V406">
+        <v>4</v>
+      </c>
+      <c r="W406">
+        <v>15</v>
+      </c>
+      <c r="X406" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y406" t="s">
+        <v>2824</v>
+      </c>
+      <c r="Z406" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA406" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB406" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC406" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD406" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE406" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF406" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG406" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH406" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI406" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ406" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AK406">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="AL406" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM406">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AN406">
+        <v>12</v>
+      </c>
+      <c r="AO406">
+        <v>10</v>
+      </c>
+      <c r="AP406">
+        <v>120</v>
+      </c>
+      <c r="AQ406" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR406" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="407" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B407" t="s">
+        <v>36</v>
+      </c>
+      <c r="C407" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F407" t="s">
+        <v>40</v>
+      </c>
+      <c r="G407" t="s">
+        <v>41</v>
+      </c>
+      <c r="H407" t="s">
+        <v>41</v>
+      </c>
+      <c r="I407" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J407" t="s">
+        <v>40</v>
+      </c>
+      <c r="K407" t="s">
+        <v>40</v>
+      </c>
+      <c r="L407" t="s">
+        <v>40</v>
+      </c>
+      <c r="M407" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N407" t="s">
+        <v>40</v>
+      </c>
+      <c r="O407" t="s">
+        <v>40</v>
+      </c>
+      <c r="P407" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q407" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R407">
+        <v>180</v>
+      </c>
+      <c r="S407" t="s">
+        <v>40</v>
+      </c>
+      <c r="T407" t="s">
+        <v>40</v>
+      </c>
+      <c r="U407" t="s">
+        <v>52</v>
+      </c>
+      <c r="V407" t="s">
+        <v>40</v>
+      </c>
+      <c r="W407">
+        <v>0</v>
+      </c>
+      <c r="X407">
+        <v>21</v>
+      </c>
+      <c r="Y407" t="s">
+        <v>2831</v>
+      </c>
+      <c r="Z407">
+        <v>0</v>
+      </c>
+      <c r="AA407" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB407" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC407" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD407" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE407" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF407" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG407" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH407" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI407" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ407" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AK407">
+        <v>0.871</v>
+      </c>
+      <c r="AL407" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM407">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AN407">
+        <v>12</v>
+      </c>
+      <c r="AO407">
+        <v>10</v>
+      </c>
+      <c r="AP407">
+        <v>120</v>
+      </c>
+      <c r="AQ407" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR407" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="408" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B408" t="s">
+        <v>36</v>
+      </c>
+      <c r="C408" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F408" t="s">
+        <v>40</v>
+      </c>
+      <c r="G408" t="s">
+        <v>41</v>
+      </c>
+      <c r="H408" t="s">
+        <v>41</v>
+      </c>
+      <c r="I408" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J408" t="s">
+        <v>40</v>
+      </c>
+      <c r="K408" t="s">
+        <v>40</v>
+      </c>
+      <c r="L408" t="s">
+        <v>40</v>
+      </c>
+      <c r="M408" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N408" t="s">
+        <v>40</v>
+      </c>
+      <c r="O408" t="s">
+        <v>40</v>
+      </c>
+      <c r="P408" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q408" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R408">
+        <v>180</v>
+      </c>
+      <c r="S408" t="s">
+        <v>40</v>
+      </c>
+      <c r="T408" t="s">
+        <v>40</v>
+      </c>
+      <c r="U408" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V408">
+        <v>4</v>
+      </c>
+      <c r="W408">
+        <v>5</v>
+      </c>
+      <c r="X408" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y408" t="s">
+        <v>2831</v>
+      </c>
+      <c r="Z408" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA408" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB408" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC408" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD408" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE408" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF408" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG408" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH408" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI408" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ408" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AK408">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AL408" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM408">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AN408">
+        <v>12</v>
+      </c>
+      <c r="AO408">
+        <v>10</v>
+      </c>
+      <c r="AP408">
+        <v>120</v>
+      </c>
+      <c r="AQ408" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR408" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="409" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B409" t="s">
+        <v>36</v>
+      </c>
+      <c r="C409" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F409" t="s">
+        <v>40</v>
+      </c>
+      <c r="G409" t="s">
+        <v>41</v>
+      </c>
+      <c r="H409" t="s">
+        <v>41</v>
+      </c>
+      <c r="I409" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J409" t="s">
+        <v>40</v>
+      </c>
+      <c r="K409" t="s">
+        <v>40</v>
+      </c>
+      <c r="L409" t="s">
+        <v>40</v>
+      </c>
+      <c r="M409" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N409" t="s">
+        <v>40</v>
+      </c>
+      <c r="O409" t="s">
+        <v>40</v>
+      </c>
+      <c r="P409" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R409">
+        <v>180</v>
+      </c>
+      <c r="S409" t="s">
+        <v>40</v>
+      </c>
+      <c r="T409" t="s">
+        <v>40</v>
+      </c>
+      <c r="U409" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V409">
+        <v>4</v>
+      </c>
+      <c r="W409">
+        <v>10</v>
+      </c>
+      <c r="X409" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y409" t="s">
+        <v>2831</v>
+      </c>
+      <c r="Z409" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA409" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB409" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC409" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD409" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE409" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF409" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG409" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH409" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI409" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ409" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AK409">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="AL409" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM409">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AN409">
+        <v>12</v>
+      </c>
+      <c r="AO409">
+        <v>10</v>
+      </c>
+      <c r="AP409">
+        <v>120</v>
+      </c>
+      <c r="AQ409" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR409" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="410" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B410" t="s">
+        <v>36</v>
+      </c>
+      <c r="C410" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F410" t="s">
+        <v>40</v>
+      </c>
+      <c r="G410" t="s">
+        <v>41</v>
+      </c>
+      <c r="H410" t="s">
+        <v>41</v>
+      </c>
+      <c r="I410" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J410" t="s">
+        <v>40</v>
+      </c>
+      <c r="K410" t="s">
+        <v>40</v>
+      </c>
+      <c r="L410" t="s">
+        <v>40</v>
+      </c>
+      <c r="M410" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N410" t="s">
+        <v>40</v>
+      </c>
+      <c r="O410" t="s">
+        <v>40</v>
+      </c>
+      <c r="P410" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R410">
+        <v>180</v>
+      </c>
+      <c r="S410" t="s">
+        <v>40</v>
+      </c>
+      <c r="T410" t="s">
+        <v>40</v>
+      </c>
+      <c r="U410" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V410">
+        <v>4</v>
+      </c>
+      <c r="W410">
+        <v>15</v>
+      </c>
+      <c r="X410" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y410" t="s">
+        <v>2831</v>
+      </c>
+      <c r="Z410" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA410" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB410" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC410" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD410" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE410" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF410" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG410" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH410" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI410" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ410" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AK410">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="AL410" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM410">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AN410">
+        <v>12</v>
+      </c>
+      <c r="AO410">
+        <v>10</v>
+      </c>
+      <c r="AP410">
+        <v>120</v>
+      </c>
+      <c r="AQ410" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR410" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="411" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B411" t="s">
+        <v>36</v>
+      </c>
+      <c r="C411" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F411" t="s">
+        <v>40</v>
+      </c>
+      <c r="G411" t="s">
+        <v>41</v>
+      </c>
+      <c r="H411" t="s">
+        <v>41</v>
+      </c>
+      <c r="I411" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J411" t="s">
+        <v>40</v>
+      </c>
+      <c r="K411" t="s">
+        <v>40</v>
+      </c>
+      <c r="L411" t="s">
+        <v>40</v>
+      </c>
+      <c r="M411" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N411" t="s">
+        <v>40</v>
+      </c>
+      <c r="O411" t="s">
+        <v>40</v>
+      </c>
+      <c r="P411" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R411">
+        <v>180</v>
+      </c>
+      <c r="S411" t="s">
+        <v>40</v>
+      </c>
+      <c r="T411" t="s">
+        <v>40</v>
+      </c>
+      <c r="U411" t="s">
+        <v>52</v>
+      </c>
+      <c r="V411" t="s">
+        <v>40</v>
+      </c>
+      <c r="W411">
+        <v>0</v>
+      </c>
+      <c r="X411">
+        <v>21</v>
+      </c>
+      <c r="Y411" t="s">
+        <v>2832</v>
+      </c>
+      <c r="Z411">
+        <v>0</v>
+      </c>
+      <c r="AA411" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB411" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC411" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD411" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE411" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF411" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG411" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH411" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI411" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ411" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AK411">
+        <v>0.878</v>
+      </c>
+      <c r="AL411" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM411">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AN411">
+        <v>12</v>
+      </c>
+      <c r="AO411">
+        <v>10</v>
+      </c>
+      <c r="AP411">
+        <v>120</v>
+      </c>
+      <c r="AQ411" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR411" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="412" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B412" t="s">
+        <v>36</v>
+      </c>
+      <c r="C412" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F412" t="s">
+        <v>40</v>
+      </c>
+      <c r="G412" t="s">
+        <v>41</v>
+      </c>
+      <c r="H412" t="s">
+        <v>41</v>
+      </c>
+      <c r="I412" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J412" t="s">
+        <v>40</v>
+      </c>
+      <c r="K412" t="s">
+        <v>40</v>
+      </c>
+      <c r="L412" t="s">
+        <v>40</v>
+      </c>
+      <c r="M412" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N412" t="s">
+        <v>40</v>
+      </c>
+      <c r="O412" t="s">
+        <v>40</v>
+      </c>
+      <c r="P412" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q412" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R412">
+        <v>180</v>
+      </c>
+      <c r="S412" t="s">
+        <v>40</v>
+      </c>
+      <c r="T412" t="s">
+        <v>40</v>
+      </c>
+      <c r="U412" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V412">
+        <v>4</v>
+      </c>
+      <c r="W412">
+        <v>5</v>
+      </c>
+      <c r="X412" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y412" t="s">
+        <v>2832</v>
+      </c>
+      <c r="Z412" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA412" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB412" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC412" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD412" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE412" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF412" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG412" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH412" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI412" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ412" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AK412">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AL412" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM412">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AN412">
+        <v>12</v>
+      </c>
+      <c r="AO412">
+        <v>10</v>
+      </c>
+      <c r="AP412">
+        <v>120</v>
+      </c>
+      <c r="AQ412" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR412" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="413" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B413" t="s">
+        <v>36</v>
+      </c>
+      <c r="C413" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F413" t="s">
+        <v>40</v>
+      </c>
+      <c r="G413" t="s">
+        <v>41</v>
+      </c>
+      <c r="H413" t="s">
+        <v>41</v>
+      </c>
+      <c r="I413" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J413" t="s">
+        <v>40</v>
+      </c>
+      <c r="K413" t="s">
+        <v>40</v>
+      </c>
+      <c r="L413" t="s">
+        <v>40</v>
+      </c>
+      <c r="M413" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N413" t="s">
+        <v>40</v>
+      </c>
+      <c r="O413" t="s">
+        <v>40</v>
+      </c>
+      <c r="P413" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R413">
+        <v>180</v>
+      </c>
+      <c r="S413" t="s">
+        <v>40</v>
+      </c>
+      <c r="T413" t="s">
+        <v>40</v>
+      </c>
+      <c r="U413" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V413">
+        <v>4</v>
+      </c>
+      <c r="W413">
+        <v>10</v>
+      </c>
+      <c r="X413" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y413" t="s">
+        <v>2832</v>
+      </c>
+      <c r="Z413" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA413" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB413" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC413" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD413" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE413" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF413" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG413" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH413" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI413" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ413" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AK413">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="AL413" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM413">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AN413">
+        <v>12</v>
+      </c>
+      <c r="AO413">
+        <v>10</v>
+      </c>
+      <c r="AP413">
+        <v>120</v>
+      </c>
+      <c r="AQ413" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR413" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="414" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B414" t="s">
+        <v>36</v>
+      </c>
+      <c r="C414" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F414" t="s">
+        <v>40</v>
+      </c>
+      <c r="G414" t="s">
+        <v>41</v>
+      </c>
+      <c r="H414" t="s">
+        <v>41</v>
+      </c>
+      <c r="I414" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J414" t="s">
+        <v>40</v>
+      </c>
+      <c r="K414" t="s">
+        <v>40</v>
+      </c>
+      <c r="L414" t="s">
+        <v>40</v>
+      </c>
+      <c r="M414" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N414" t="s">
+        <v>40</v>
+      </c>
+      <c r="O414" t="s">
+        <v>40</v>
+      </c>
+      <c r="P414" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q414" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R414">
+        <v>180</v>
+      </c>
+      <c r="S414" t="s">
+        <v>40</v>
+      </c>
+      <c r="T414" t="s">
+        <v>40</v>
+      </c>
+      <c r="U414" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V414">
+        <v>4</v>
+      </c>
+      <c r="W414">
+        <v>15</v>
+      </c>
+      <c r="X414" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y414" t="s">
+        <v>2832</v>
+      </c>
+      <c r="Z414" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA414" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB414" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC414" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD414" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE414" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF414" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG414" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH414" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI414" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ414" t="s">
+        <v>2826</v>
+      </c>
+      <c r="AK414">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AL414" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM414">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AN414">
+        <v>12</v>
+      </c>
+      <c r="AO414">
+        <v>10</v>
+      </c>
+      <c r="AP414">
+        <v>120</v>
+      </c>
+      <c r="AQ414" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR414" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="415" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B415" t="s">
+        <v>36</v>
+      </c>
+      <c r="C415" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F415" t="s">
+        <v>40</v>
+      </c>
+      <c r="G415" t="s">
+        <v>41</v>
+      </c>
+      <c r="H415" t="s">
+        <v>41</v>
+      </c>
+      <c r="I415" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J415" t="s">
+        <v>40</v>
+      </c>
+      <c r="K415" t="s">
+        <v>40</v>
+      </c>
+      <c r="L415" t="s">
+        <v>40</v>
+      </c>
+      <c r="M415" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N415" t="s">
+        <v>40</v>
+      </c>
+      <c r="O415" t="s">
+        <v>40</v>
+      </c>
+      <c r="P415" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q415" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R415">
+        <v>180</v>
+      </c>
+      <c r="S415" t="s">
+        <v>40</v>
+      </c>
+      <c r="T415" t="s">
+        <v>40</v>
+      </c>
+      <c r="U415" t="s">
+        <v>52</v>
+      </c>
+      <c r="V415" t="s">
+        <v>40</v>
+      </c>
+      <c r="W415">
+        <v>0</v>
+      </c>
+      <c r="X415">
+        <v>21</v>
+      </c>
+      <c r="Y415" t="s">
+        <v>2824</v>
+      </c>
+      <c r="Z415">
+        <v>0</v>
+      </c>
+      <c r="AA415" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB415" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC415" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD415" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE415" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF415" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG415" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH415" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI415" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ415" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AK415">
+        <v>10.795999999999999</v>
+      </c>
+      <c r="AL415" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM415">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AN415">
+        <v>12</v>
+      </c>
+      <c r="AO415">
+        <v>10</v>
+      </c>
+      <c r="AP415">
+        <v>120</v>
+      </c>
+      <c r="AQ415" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR415" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="416" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B416" t="s">
+        <v>36</v>
+      </c>
+      <c r="C416" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F416" t="s">
+        <v>40</v>
+      </c>
+      <c r="G416" t="s">
+        <v>41</v>
+      </c>
+      <c r="H416" t="s">
+        <v>41</v>
+      </c>
+      <c r="I416" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J416" t="s">
+        <v>40</v>
+      </c>
+      <c r="K416" t="s">
+        <v>40</v>
+      </c>
+      <c r="L416" t="s">
+        <v>40</v>
+      </c>
+      <c r="M416" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N416" t="s">
+        <v>40</v>
+      </c>
+      <c r="O416" t="s">
+        <v>40</v>
+      </c>
+      <c r="P416" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R416">
+        <v>180</v>
+      </c>
+      <c r="S416" t="s">
+        <v>40</v>
+      </c>
+      <c r="T416" t="s">
+        <v>40</v>
+      </c>
+      <c r="U416" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V416">
+        <v>4</v>
+      </c>
+      <c r="W416">
+        <v>5</v>
+      </c>
+      <c r="X416" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y416" t="s">
+        <v>2824</v>
+      </c>
+      <c r="Z416" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA416" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB416" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC416" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD416" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE416" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF416" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG416" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH416" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI416" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ416" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AK416">
+        <v>8.5459999999999994</v>
+      </c>
+      <c r="AL416" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM416">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AN416">
+        <v>12</v>
+      </c>
+      <c r="AO416">
+        <v>10</v>
+      </c>
+      <c r="AP416">
+        <v>120</v>
+      </c>
+      <c r="AQ416" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR416" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="417" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B417" t="s">
+        <v>36</v>
+      </c>
+      <c r="C417" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F417" t="s">
+        <v>40</v>
+      </c>
+      <c r="G417" t="s">
+        <v>41</v>
+      </c>
+      <c r="H417" t="s">
+        <v>41</v>
+      </c>
+      <c r="I417" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J417" t="s">
+        <v>40</v>
+      </c>
+      <c r="K417" t="s">
+        <v>40</v>
+      </c>
+      <c r="L417" t="s">
+        <v>40</v>
+      </c>
+      <c r="M417" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N417" t="s">
+        <v>40</v>
+      </c>
+      <c r="O417" t="s">
+        <v>40</v>
+      </c>
+      <c r="P417" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q417" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R417">
+        <v>180</v>
+      </c>
+      <c r="S417" t="s">
+        <v>40</v>
+      </c>
+      <c r="T417" t="s">
+        <v>40</v>
+      </c>
+      <c r="U417" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V417">
+        <v>4</v>
+      </c>
+      <c r="W417">
+        <v>10</v>
+      </c>
+      <c r="X417" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y417" t="s">
+        <v>2824</v>
+      </c>
+      <c r="Z417" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA417" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB417" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC417" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD417" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE417" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF417" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG417" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH417" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI417" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ417" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AK417">
+        <v>8.7330000000000005</v>
+      </c>
+      <c r="AL417" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM417">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="AN417">
+        <v>12</v>
+      </c>
+      <c r="AO417">
+        <v>10</v>
+      </c>
+      <c r="AP417">
+        <v>120</v>
+      </c>
+      <c r="AQ417" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR417" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="418" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B418" t="s">
+        <v>36</v>
+      </c>
+      <c r="C418" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F418" t="s">
+        <v>40</v>
+      </c>
+      <c r="G418" t="s">
+        <v>41</v>
+      </c>
+      <c r="H418" t="s">
+        <v>41</v>
+      </c>
+      <c r="I418" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J418" t="s">
+        <v>40</v>
+      </c>
+      <c r="K418" t="s">
+        <v>40</v>
+      </c>
+      <c r="L418" t="s">
+        <v>40</v>
+      </c>
+      <c r="M418" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N418" t="s">
+        <v>40</v>
+      </c>
+      <c r="O418" t="s">
+        <v>40</v>
+      </c>
+      <c r="P418" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q418" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R418">
+        <v>180</v>
+      </c>
+      <c r="S418" t="s">
+        <v>40</v>
+      </c>
+      <c r="T418" t="s">
+        <v>40</v>
+      </c>
+      <c r="U418" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V418">
+        <v>4</v>
+      </c>
+      <c r="W418">
+        <v>15</v>
+      </c>
+      <c r="X418" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y418" t="s">
+        <v>2824</v>
+      </c>
+      <c r="Z418" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA418" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB418" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC418" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD418" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE418" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF418" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG418" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH418" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI418" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ418" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AK418">
+        <v>8.048</v>
+      </c>
+      <c r="AL418" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM418">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="AN418">
+        <v>12</v>
+      </c>
+      <c r="AO418">
+        <v>10</v>
+      </c>
+      <c r="AP418">
+        <v>120</v>
+      </c>
+      <c r="AQ418" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR418" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="419" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B419" t="s">
+        <v>36</v>
+      </c>
+      <c r="C419" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F419" t="s">
+        <v>40</v>
+      </c>
+      <c r="G419" t="s">
+        <v>41</v>
+      </c>
+      <c r="H419" t="s">
+        <v>41</v>
+      </c>
+      <c r="I419" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J419" t="s">
+        <v>40</v>
+      </c>
+      <c r="K419" t="s">
+        <v>40</v>
+      </c>
+      <c r="L419" t="s">
+        <v>40</v>
+      </c>
+      <c r="M419" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N419" t="s">
+        <v>40</v>
+      </c>
+      <c r="O419" t="s">
+        <v>40</v>
+      </c>
+      <c r="P419" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q419" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R419">
+        <v>180</v>
+      </c>
+      <c r="S419" t="s">
+        <v>40</v>
+      </c>
+      <c r="T419" t="s">
+        <v>40</v>
+      </c>
+      <c r="U419" t="s">
+        <v>52</v>
+      </c>
+      <c r="V419" t="s">
+        <v>40</v>
+      </c>
+      <c r="W419">
+        <v>0</v>
+      </c>
+      <c r="X419">
+        <v>21</v>
+      </c>
+      <c r="Y419" t="s">
+        <v>2831</v>
+      </c>
+      <c r="Z419">
+        <v>0</v>
+      </c>
+      <c r="AA419" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB419" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC419" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD419" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE419" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF419" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG419" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH419" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI419" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ419" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AK419">
+        <v>6.8639999999999999</v>
+      </c>
+      <c r="AL419" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM419">
+        <v>0.82</v>
+      </c>
+      <c r="AN419">
+        <v>12</v>
+      </c>
+      <c r="AO419">
+        <v>10</v>
+      </c>
+      <c r="AP419">
+        <v>120</v>
+      </c>
+      <c r="AQ419" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR419" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="420" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B420" t="s">
+        <v>36</v>
+      </c>
+      <c r="C420" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F420" t="s">
+        <v>40</v>
+      </c>
+      <c r="G420" t="s">
+        <v>41</v>
+      </c>
+      <c r="H420" t="s">
+        <v>41</v>
+      </c>
+      <c r="I420" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J420" t="s">
+        <v>40</v>
+      </c>
+      <c r="K420" t="s">
+        <v>40</v>
+      </c>
+      <c r="L420" t="s">
+        <v>40</v>
+      </c>
+      <c r="M420" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N420" t="s">
+        <v>40</v>
+      </c>
+      <c r="O420" t="s">
+        <v>40</v>
+      </c>
+      <c r="P420" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q420" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R420">
+        <v>180</v>
+      </c>
+      <c r="S420" t="s">
+        <v>40</v>
+      </c>
+      <c r="T420" t="s">
+        <v>40</v>
+      </c>
+      <c r="U420" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V420">
+        <v>4</v>
+      </c>
+      <c r="W420">
+        <v>5</v>
+      </c>
+      <c r="X420" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y420" t="s">
+        <v>2831</v>
+      </c>
+      <c r="Z420" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA420" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB420" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC420" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD420" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE420" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF420" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG420" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH420" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI420" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ420" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AK420">
+        <v>6.21</v>
+      </c>
+      <c r="AL420" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM420">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="AN420">
+        <v>12</v>
+      </c>
+      <c r="AO420">
+        <v>10</v>
+      </c>
+      <c r="AP420">
+        <v>120</v>
+      </c>
+      <c r="AQ420" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR420" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="421" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B421" t="s">
+        <v>36</v>
+      </c>
+      <c r="C421" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F421" t="s">
+        <v>40</v>
+      </c>
+      <c r="G421" t="s">
+        <v>41</v>
+      </c>
+      <c r="H421" t="s">
+        <v>41</v>
+      </c>
+      <c r="I421" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J421" t="s">
+        <v>40</v>
+      </c>
+      <c r="K421" t="s">
+        <v>40</v>
+      </c>
+      <c r="L421" t="s">
+        <v>40</v>
+      </c>
+      <c r="M421" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N421" t="s">
+        <v>40</v>
+      </c>
+      <c r="O421" t="s">
+        <v>40</v>
+      </c>
+      <c r="P421" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q421" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R421">
+        <v>180</v>
+      </c>
+      <c r="S421" t="s">
+        <v>40</v>
+      </c>
+      <c r="T421" t="s">
+        <v>40</v>
+      </c>
+      <c r="U421" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V421">
+        <v>4</v>
+      </c>
+      <c r="W421">
+        <v>10</v>
+      </c>
+      <c r="X421" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y421" t="s">
+        <v>2831</v>
+      </c>
+      <c r="Z421" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA421" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB421" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC421" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD421" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE421" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF421" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG421" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH421" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI421" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ421" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AK421">
+        <v>6.21</v>
+      </c>
+      <c r="AL421" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM421">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="AN421">
+        <v>12</v>
+      </c>
+      <c r="AO421">
+        <v>10</v>
+      </c>
+      <c r="AP421">
+        <v>120</v>
+      </c>
+      <c r="AQ421" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR421" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="422" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B422" t="s">
+        <v>36</v>
+      </c>
+      <c r="C422" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F422" t="s">
+        <v>40</v>
+      </c>
+      <c r="G422" t="s">
+        <v>41</v>
+      </c>
+      <c r="H422" t="s">
+        <v>41</v>
+      </c>
+      <c r="I422" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J422" t="s">
+        <v>40</v>
+      </c>
+      <c r="K422" t="s">
+        <v>40</v>
+      </c>
+      <c r="L422" t="s">
+        <v>40</v>
+      </c>
+      <c r="M422" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N422" t="s">
+        <v>40</v>
+      </c>
+      <c r="O422" t="s">
+        <v>40</v>
+      </c>
+      <c r="P422" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q422" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R422">
+        <v>180</v>
+      </c>
+      <c r="S422" t="s">
+        <v>40</v>
+      </c>
+      <c r="T422" t="s">
+        <v>40</v>
+      </c>
+      <c r="U422" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V422">
+        <v>4</v>
+      </c>
+      <c r="W422">
+        <v>15</v>
+      </c>
+      <c r="X422" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y422" t="s">
+        <v>2831</v>
+      </c>
+      <c r="Z422" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA422" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB422" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC422" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD422" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE422" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF422" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG422" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH422" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI422" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ422" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AK422">
+        <v>6.0339999999999998</v>
+      </c>
+      <c r="AL422" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM422">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="AN422">
+        <v>12</v>
+      </c>
+      <c r="AO422">
+        <v>10</v>
+      </c>
+      <c r="AP422">
+        <v>120</v>
+      </c>
+      <c r="AQ422" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR422" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="423" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B423" t="s">
+        <v>36</v>
+      </c>
+      <c r="C423" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F423" t="s">
+        <v>40</v>
+      </c>
+      <c r="G423" t="s">
+        <v>41</v>
+      </c>
+      <c r="H423" t="s">
+        <v>41</v>
+      </c>
+      <c r="I423" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J423" t="s">
+        <v>40</v>
+      </c>
+      <c r="K423" t="s">
+        <v>40</v>
+      </c>
+      <c r="L423" t="s">
+        <v>40</v>
+      </c>
+      <c r="M423" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N423" t="s">
+        <v>40</v>
+      </c>
+      <c r="O423" t="s">
+        <v>40</v>
+      </c>
+      <c r="P423" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R423">
+        <v>180</v>
+      </c>
+      <c r="S423" t="s">
+        <v>40</v>
+      </c>
+      <c r="T423" t="s">
+        <v>40</v>
+      </c>
+      <c r="U423" t="s">
+        <v>52</v>
+      </c>
+      <c r="V423" t="s">
+        <v>40</v>
+      </c>
+      <c r="W423">
+        <v>0</v>
+      </c>
+      <c r="X423">
+        <v>21</v>
+      </c>
+      <c r="Y423" t="s">
+        <v>2832</v>
+      </c>
+      <c r="Z423">
+        <v>0</v>
+      </c>
+      <c r="AA423" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB423" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC423" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD423" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE423" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF423" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG423" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH423" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI423" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ423" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AK423">
+        <v>6.625</v>
+      </c>
+      <c r="AL423" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM423">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AN423">
+        <v>12</v>
+      </c>
+      <c r="AO423">
+        <v>10</v>
+      </c>
+      <c r="AP423">
+        <v>120</v>
+      </c>
+      <c r="AQ423" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR423" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="424" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B424" t="s">
+        <v>36</v>
+      </c>
+      <c r="C424" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F424" t="s">
+        <v>40</v>
+      </c>
+      <c r="G424" t="s">
+        <v>41</v>
+      </c>
+      <c r="H424" t="s">
+        <v>41</v>
+      </c>
+      <c r="I424" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J424" t="s">
+        <v>40</v>
+      </c>
+      <c r="K424" t="s">
+        <v>40</v>
+      </c>
+      <c r="L424" t="s">
+        <v>40</v>
+      </c>
+      <c r="M424" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N424" t="s">
+        <v>40</v>
+      </c>
+      <c r="O424" t="s">
+        <v>40</v>
+      </c>
+      <c r="P424" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q424" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R424">
+        <v>180</v>
+      </c>
+      <c r="S424" t="s">
+        <v>40</v>
+      </c>
+      <c r="T424" t="s">
+        <v>40</v>
+      </c>
+      <c r="U424" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V424">
+        <v>4</v>
+      </c>
+      <c r="W424">
+        <v>5</v>
+      </c>
+      <c r="X424" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y424" t="s">
+        <v>2832</v>
+      </c>
+      <c r="Z424" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA424" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB424" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC424" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD424" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE424" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF424" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG424" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH424" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI424" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ424" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AK424">
+        <v>6.8019999999999996</v>
+      </c>
+      <c r="AL424" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM424">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AN424">
+        <v>12</v>
+      </c>
+      <c r="AO424">
+        <v>10</v>
+      </c>
+      <c r="AP424">
+        <v>120</v>
+      </c>
+      <c r="AQ424" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR424" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="425" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B425" t="s">
+        <v>36</v>
+      </c>
+      <c r="C425" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F425" t="s">
+        <v>40</v>
+      </c>
+      <c r="G425" t="s">
+        <v>41</v>
+      </c>
+      <c r="H425" t="s">
+        <v>41</v>
+      </c>
+      <c r="I425" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J425" t="s">
+        <v>40</v>
+      </c>
+      <c r="K425" t="s">
+        <v>40</v>
+      </c>
+      <c r="L425" t="s">
+        <v>40</v>
+      </c>
+      <c r="M425" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N425" t="s">
+        <v>40</v>
+      </c>
+      <c r="O425" t="s">
+        <v>40</v>
+      </c>
+      <c r="P425" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q425" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R425">
+        <v>180</v>
+      </c>
+      <c r="S425" t="s">
+        <v>40</v>
+      </c>
+      <c r="T425" t="s">
+        <v>40</v>
+      </c>
+      <c r="U425" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V425">
+        <v>4</v>
+      </c>
+      <c r="W425">
+        <v>10</v>
+      </c>
+      <c r="X425" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y425" t="s">
+        <v>2832</v>
+      </c>
+      <c r="Z425" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA425" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB425" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC425" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD425" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE425" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF425" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG425" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH425" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI425" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ425" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AK425">
+        <v>6.532</v>
+      </c>
+      <c r="AL425" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM425">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AN425">
+        <v>12</v>
+      </c>
+      <c r="AO425">
+        <v>10</v>
+      </c>
+      <c r="AP425">
+        <v>120</v>
+      </c>
+      <c r="AQ425" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR425" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="426" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B426" t="s">
+        <v>36</v>
+      </c>
+      <c r="C426" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F426" t="s">
+        <v>40</v>
+      </c>
+      <c r="G426" t="s">
+        <v>41</v>
+      </c>
+      <c r="H426" t="s">
+        <v>41</v>
+      </c>
+      <c r="I426" t="s">
+        <v>2821</v>
+      </c>
+      <c r="J426" t="s">
+        <v>40</v>
+      </c>
+      <c r="K426" t="s">
+        <v>40</v>
+      </c>
+      <c r="L426" t="s">
+        <v>40</v>
+      </c>
+      <c r="M426" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N426" t="s">
+        <v>40</v>
+      </c>
+      <c r="O426" t="s">
+        <v>40</v>
+      </c>
+      <c r="P426" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q426" t="s">
+        <v>2823</v>
+      </c>
+      <c r="R426">
+        <v>180</v>
+      </c>
+      <c r="S426" t="s">
+        <v>40</v>
+      </c>
+      <c r="T426" t="s">
+        <v>40</v>
+      </c>
+      <c r="U426" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V426">
+        <v>4</v>
+      </c>
+      <c r="W426">
+        <v>15</v>
+      </c>
+      <c r="X426" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Y426" t="s">
+        <v>2832</v>
+      </c>
+      <c r="Z426" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AA426" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB426" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC426" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD426" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE426" t="s">
+        <v>2825</v>
+      </c>
+      <c r="AF426" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG426" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH426" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI426" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ426" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AK426">
+        <v>6.968</v>
+      </c>
+      <c r="AL426" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM426">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AN426">
+        <v>12</v>
+      </c>
+      <c r="AO426">
+        <v>10</v>
+      </c>
+      <c r="AP426">
+        <v>120</v>
+      </c>
+      <c r="AQ426" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR426" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="427" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B427" t="s">
+        <v>36</v>
+      </c>
+      <c r="C427" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D427" t="s">
+        <v>563</v>
+      </c>
+      <c r="E427" t="s">
+        <v>564</v>
+      </c>
+      <c r="G427" t="s">
+        <v>45</v>
+      </c>
+      <c r="H427" t="s">
+        <v>41</v>
+      </c>
+      <c r="I427" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M427" t="s">
+        <v>42</v>
+      </c>
+      <c r="O427">
+        <v>2012</v>
+      </c>
+      <c r="U427" t="s">
+        <v>2836</v>
+      </c>
+      <c r="V427"/>
+      <c r="X427" s="1">
+        <v>45955</v>
+      </c>
+      <c r="Z427">
+        <v>12</v>
+      </c>
+      <c r="AD427" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF427" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI427" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ427" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK427">
+        <v>86.86</v>
+      </c>
+      <c r="AL427" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM427">
+        <v>6.99</v>
+      </c>
+      <c r="AN427">
+        <v>4</v>
+      </c>
+      <c r="AO427">
+        <v>30</v>
+      </c>
+      <c r="AP427">
+        <v>120</v>
+      </c>
+      <c r="AQ427" t="s">
+        <v>2837</v>
+      </c>
+      <c r="AR427" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="428" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B428" t="s">
+        <v>36</v>
+      </c>
+      <c r="C428" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D428" t="s">
+        <v>563</v>
+      </c>
+      <c r="E428" t="s">
+        <v>564</v>
+      </c>
+      <c r="G428" t="s">
+        <v>45</v>
+      </c>
+      <c r="H428" t="s">
+        <v>41</v>
+      </c>
+      <c r="I428" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M428" t="s">
+        <v>42</v>
+      </c>
+      <c r="O428">
+        <v>2012</v>
+      </c>
+      <c r="U428" t="s">
+        <v>2836</v>
+      </c>
+      <c r="V428"/>
+      <c r="X428" s="1">
+        <v>45955</v>
+      </c>
+      <c r="Z428">
+        <v>12</v>
+      </c>
+      <c r="AD428" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF428" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI428" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ428" t="s">
+        <v>2838</v>
+      </c>
+      <c r="AK428">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AL428" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM428">
+        <v>1.06</v>
+      </c>
+      <c r="AN428">
+        <v>4</v>
+      </c>
+      <c r="AO428">
+        <v>30</v>
+      </c>
+      <c r="AP428">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AQ428" t="s">
+        <v>2837</v>
+      </c>
+      <c r="AR428" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="429" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B429" t="s">
+        <v>36</v>
+      </c>
+      <c r="C429" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D429" t="s">
+        <v>563</v>
+      </c>
+      <c r="E429" t="s">
+        <v>564</v>
+      </c>
+      <c r="G429" t="s">
+        <v>45</v>
+      </c>
+      <c r="H429" t="s">
+        <v>41</v>
+      </c>
+      <c r="I429" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M429" t="s">
+        <v>42</v>
+      </c>
+      <c r="O429">
+        <v>2012</v>
+      </c>
+      <c r="U429" t="s">
+        <v>21</v>
+      </c>
+      <c r="V429"/>
+      <c r="X429" s="1">
+        <v>45955</v>
+      </c>
+      <c r="Z429">
+        <v>12</v>
+      </c>
+      <c r="AA429" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB429">
+        <v>250</v>
+      </c>
+      <c r="AC429" t="s">
+        <v>2839</v>
+      </c>
+      <c r="AD429" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF429" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI429" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ429" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK429">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="AL429" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM429">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="AN429">
+        <v>4</v>
+      </c>
+      <c r="AO429">
+        <v>30</v>
+      </c>
+      <c r="AP429">
+        <v>120</v>
+      </c>
+      <c r="AQ429" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AR429" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="430" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B430" t="s">
+        <v>36</v>
+      </c>
+      <c r="C430" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D430" t="s">
+        <v>563</v>
+      </c>
+      <c r="E430" t="s">
+        <v>564</v>
+      </c>
+      <c r="G430" t="s">
+        <v>45</v>
+      </c>
+      <c r="H430" t="s">
+        <v>41</v>
+      </c>
+      <c r="I430" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M430" t="s">
+        <v>42</v>
+      </c>
+      <c r="O430">
+        <v>2012</v>
+      </c>
+      <c r="U430" t="s">
+        <v>21</v>
+      </c>
+      <c r="V430"/>
+      <c r="X430" s="1">
+        <v>45955</v>
+      </c>
+      <c r="Z430">
+        <v>12</v>
+      </c>
+      <c r="AA430" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB430">
+        <v>250</v>
+      </c>
+      <c r="AC430" t="s">
+        <v>2839</v>
+      </c>
+      <c r="AD430" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF430" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI430" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ430" t="s">
+        <v>2838</v>
+      </c>
+      <c r="AK430">
+        <v>21.96</v>
+      </c>
+      <c r="AL430" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM430">
+        <v>2.65</v>
+      </c>
+      <c r="AN430">
+        <v>4</v>
+      </c>
+      <c r="AO430">
+        <v>30</v>
+      </c>
+      <c r="AP430">
+        <v>21.96</v>
+      </c>
+      <c r="AQ430" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AR430" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="431" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B431" t="s">
+        <v>36</v>
+      </c>
+      <c r="C431" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D431" t="s">
+        <v>563</v>
+      </c>
+      <c r="E431" t="s">
+        <v>564</v>
+      </c>
+      <c r="G431" t="s">
+        <v>45</v>
+      </c>
+      <c r="H431" t="s">
+        <v>41</v>
+      </c>
+      <c r="I431" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M431" t="s">
+        <v>42</v>
+      </c>
+      <c r="O431">
+        <v>2012</v>
+      </c>
+      <c r="U431" t="s">
+        <v>2841</v>
+      </c>
+      <c r="V431">
+        <v>25</v>
+      </c>
+      <c r="W431">
+        <v>90</v>
+      </c>
+      <c r="X431" s="1">
+        <v>45955</v>
+      </c>
+      <c r="Z431">
+        <v>12</v>
+      </c>
+      <c r="AD431" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF431" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI431" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ431" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK431">
+        <v>84.17</v>
+      </c>
+      <c r="AL431" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM431">
+        <v>2.9</v>
+      </c>
+      <c r="AN431">
+        <v>4</v>
+      </c>
+      <c r="AO431">
+        <v>30</v>
+      </c>
+      <c r="AP431">
+        <v>120</v>
+      </c>
+      <c r="AQ431" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AR431" t="s">
+        <v>2764</v>
+      </c>
+      <c r="AS431" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="432" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B432" t="s">
+        <v>36</v>
+      </c>
+      <c r="C432" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D432" t="s">
+        <v>563</v>
+      </c>
+      <c r="E432" t="s">
+        <v>564</v>
+      </c>
+      <c r="G432" t="s">
+        <v>45</v>
+      </c>
+      <c r="H432" t="s">
+        <v>41</v>
+      </c>
+      <c r="I432" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M432" t="s">
+        <v>42</v>
+      </c>
+      <c r="O432">
+        <v>2012</v>
+      </c>
+      <c r="U432" t="s">
+        <v>2841</v>
+      </c>
+      <c r="V432">
+        <v>25</v>
+      </c>
+      <c r="W432">
+        <v>90</v>
+      </c>
+      <c r="X432" s="1">
+        <v>45955</v>
+      </c>
+      <c r="Z432">
+        <v>12</v>
+      </c>
+      <c r="AD432" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF432" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI432" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ432" t="s">
+        <v>2838</v>
+      </c>
+      <c r="AK432">
+        <v>12.5</v>
+      </c>
+      <c r="AL432" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM432">
+        <v>6.71</v>
+      </c>
+      <c r="AN432">
+        <v>4</v>
+      </c>
+      <c r="AO432">
+        <v>30</v>
+      </c>
+      <c r="AP432">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="AQ432" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AR432" t="s">
+        <v>2764</v>
+      </c>
+      <c r="AS432" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="433" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B433" t="s">
+        <v>36</v>
+      </c>
+      <c r="C433" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D433" t="s">
+        <v>563</v>
+      </c>
+      <c r="E433" t="s">
+        <v>564</v>
+      </c>
+      <c r="G433" t="s">
+        <v>45</v>
+      </c>
+      <c r="H433" t="s">
+        <v>41</v>
+      </c>
+      <c r="I433" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M433" t="s">
+        <v>42</v>
+      </c>
+      <c r="O433">
+        <v>2012</v>
+      </c>
+      <c r="U433" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V433">
+        <v>5</v>
+      </c>
+      <c r="W433">
+        <v>90</v>
+      </c>
+      <c r="X433" s="1">
+        <v>45955</v>
+      </c>
+      <c r="Z433">
+        <v>12</v>
+      </c>
+      <c r="AD433" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF433" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI433" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ433" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK433">
+        <v>70.16</v>
+      </c>
+      <c r="AL433" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM433">
+        <v>7.54</v>
+      </c>
+      <c r="AN433">
+        <v>4</v>
+      </c>
+      <c r="AO433">
+        <v>30</v>
+      </c>
+      <c r="AP433">
+        <v>120</v>
+      </c>
+      <c r="AQ433" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AR433" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="434" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B434" t="s">
+        <v>36</v>
+      </c>
+      <c r="C434" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D434" t="s">
+        <v>563</v>
+      </c>
+      <c r="E434" t="s">
+        <v>564</v>
+      </c>
+      <c r="G434" t="s">
+        <v>45</v>
+      </c>
+      <c r="H434" t="s">
+        <v>41</v>
+      </c>
+      <c r="I434" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M434" t="s">
+        <v>42</v>
+      </c>
+      <c r="O434">
+        <v>2012</v>
+      </c>
+      <c r="U434" t="s">
+        <v>2828</v>
+      </c>
+      <c r="V434">
+        <v>5</v>
+      </c>
+      <c r="W434">
+        <v>90</v>
+      </c>
+      <c r="X434" s="1">
+        <v>45955</v>
+      </c>
+      <c r="Z434">
+        <v>12</v>
+      </c>
+      <c r="AD434" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF434" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI434" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ434" t="s">
+        <v>2838</v>
+      </c>
+      <c r="AK434">
+        <v>3.18</v>
+      </c>
+      <c r="AL434" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM434">
+        <v>1.01</v>
+      </c>
+      <c r="AN434">
+        <v>4</v>
+      </c>
+      <c r="AO434">
+        <v>30</v>
+      </c>
+      <c r="AP434">
+        <v>3.18</v>
+      </c>
+      <c r="AQ434" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AR434" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="435" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B435" t="s">
+        <v>36</v>
+      </c>
+      <c r="C435" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D435" t="s">
+        <v>563</v>
+      </c>
+      <c r="E435" t="s">
+        <v>564</v>
+      </c>
+      <c r="G435" t="s">
+        <v>45</v>
+      </c>
+      <c r="H435" t="s">
+        <v>41</v>
+      </c>
+      <c r="I435" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M435" t="s">
+        <v>42</v>
+      </c>
+      <c r="O435">
+        <v>2012</v>
+      </c>
+      <c r="U435" t="s">
+        <v>2843</v>
+      </c>
+      <c r="V435"/>
+      <c r="X435" s="1">
+        <v>45955</v>
+      </c>
+      <c r="Y435" t="s">
+        <v>2844</v>
+      </c>
+      <c r="Z435">
+        <v>12</v>
+      </c>
+      <c r="AD435" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF435" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI435" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ435" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK435">
+        <v>71.91</v>
+      </c>
+      <c r="AL435" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM435">
+        <v>8.44</v>
+      </c>
+      <c r="AN435">
+        <v>4</v>
+      </c>
+      <c r="AO435">
+        <v>30</v>
+      </c>
+      <c r="AP435">
+        <v>120</v>
+      </c>
+      <c r="AQ435" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AR435" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="436" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B436" t="s">
+        <v>36</v>
+      </c>
+      <c r="C436" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D436" t="s">
+        <v>563</v>
+      </c>
+      <c r="E436" t="s">
+        <v>564</v>
+      </c>
+      <c r="G436" t="s">
+        <v>45</v>
+      </c>
+      <c r="H436" t="s">
+        <v>41</v>
+      </c>
+      <c r="I436" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M436" t="s">
+        <v>42</v>
+      </c>
+      <c r="O436">
+        <v>2012</v>
+      </c>
+      <c r="U436" t="s">
+        <v>2843</v>
+      </c>
+      <c r="V436"/>
+      <c r="X436" s="1">
+        <v>45955</v>
+      </c>
+      <c r="Y436" t="s">
+        <v>2844</v>
+      </c>
+      <c r="Z436">
+        <v>12</v>
+      </c>
+      <c r="AD436" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF436" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI436" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ436" t="s">
+        <v>2838</v>
+      </c>
+      <c r="AK436">
+        <v>72.5</v>
+      </c>
+      <c r="AL436" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM436">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="AN436">
+        <v>4</v>
+      </c>
+      <c r="AO436">
+        <v>30</v>
+      </c>
+      <c r="AP436">
+        <v>72.5</v>
+      </c>
+      <c r="AQ436" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AR436" t="s">
+        <v>2764</v>
       </c>
     </row>
   </sheetData>
